--- a/VulnerabilityMapping/All_vulnerabilities(136 categories).xlsx
+++ b/VulnerabilityMapping/All_vulnerabilities(136 categories).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F2B385-A10F-429B-AD39-725BE040290B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DA6116-643B-4720-BF17-D567243C9236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,20 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
   <si>
     <t>abiencoderv2-array</t>
   </si>
@@ -454,6 +463,10 @@
   </si>
   <si>
     <t>repeat-call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info/High</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2217,7 +2230,7 @@
         <v>105</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
